--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,18 +147,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -200,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,15 +478,15 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="80.33203125" customWidth="1"/>
+    <col min="4" max="4" width="80.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -473,7 +504,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="139.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -491,7 +522,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -509,7 +540,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -519,13 +550,15 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -533,7 +566,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -541,7 +574,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -549,7 +582,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -557,7 +590,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -565,7 +598,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -573,7 +606,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -581,7 +614,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -589,7 +622,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -597,7 +630,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -605,7 +638,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -613,7 +646,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -621,7 +654,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -629,7 +662,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -637,61 +670,61 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -710,7 +743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,7 +756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -76,6 +76,35 @@
   </si>
   <si>
     <t>hanjiangyu24，,87577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上不去-检查照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片上传不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名截止到2016年10月21日24时（北京时间）。考试预计于2016年11月中下旬进行。只报了一个信息技术，可报的特别少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（同一家一级机构仅能申请1个岗位，每人最多可申请2个岗位）。
+ 　　报名截止时间为北京时间2016年10月24日24点。中国银行将在11月上旬组织进行统一笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,6 +170,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -189,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,16 +509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="80.375" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,8 +536,8 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="139.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
@@ -520,9 +552,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -538,9 +572,11 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -550,39 +586,47 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -590,7 +634,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -598,7 +642,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -606,7 +650,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -614,7 +658,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -622,7 +666,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -630,7 +674,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -638,7 +682,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -646,7 +690,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -654,7 +698,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -662,7 +706,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -670,61 +714,61 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -743,7 +787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -756,7 +800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线填写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,32 +75,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名截止到2016年10月21日24时（北京时间）。考试预计于2016年11月中下旬进行。只报了一个信息技术，可报的特别少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.9 已不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片上传不了，网站有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（同一家一级机构仅能申请1个岗位，每人最多可申请2个岗位）。
+ 　　报名截止时间为北京时间2016年10月24日24点。中国银行将在11月上旬组织进行统一笔试   ------------第一志愿：软件开发岗-软件中心辖属机构
+第二志愿：信息科技类-数据中心辖属机构
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sina.cn;897577hjy  和联通报名在一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上不去-检查照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片上传不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报名截止到2016年10月21日24时（北京时间）。考试预计于2016年11月中下旬进行。只报了一个信息技术，可报的特别少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（同一家一级机构仅能申请1个岗位，每人最多可申请2个岗位）。
- 　　报名截止时间为北京时间2016年10月24日24点。中国银行将在11月上旬组织进行统一笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +181,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -507,15 +515,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="80.33203125" customWidth="1"/>
+    <col min="1" max="3" width="24.44140625" style="5"/>
+    <col min="4" max="4" width="80.33203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="24.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,7 +547,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
@@ -553,60 +563,68 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -616,13 +634,11 @@
     </row>
     <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -698,81 +714,65 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写(入党时间，获cet6证书日期)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -271,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,18 +525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="24.44140625" style="5"/>
-    <col min="4" max="4" width="80.33203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="24.44140625" style="5"/>
+    <col min="1" max="3" width="24.5" style="5"/>
+    <col min="4" max="4" width="64.125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="24.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="121.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -546,7 +554,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -566,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -574,7 +582,7 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -586,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -604,7 +612,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -622,7 +630,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -632,7 +640,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -642,15 +650,17 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -658,7 +668,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -666,7 +676,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -674,7 +684,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -682,7 +692,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -690,7 +700,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -698,7 +708,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -706,7 +716,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -714,61 +724,61 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -787,7 +797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,7 +810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>照片上传不了，网站有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">（同一家一级机构仅能申请1个岗位，每人最多可申请2个岗位）。
  　　报名截止时间为北京时间2016年10月24日24点。中国银行将在11月上旬组织进行统一笔试   ------------第一志愿：软件开发岗-软件中心辖属机构
 第二志愿：信息科技类-数据中心辖属机构
@@ -102,23 +98,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sina.cn;897577hjy  和联通报名在一起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线填写(入党时间，获cet6证书日期)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星</t>
+    <t>明早在单位完成最后提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写(入党时间--2013-12-16 ，获cet6证书日期--2014.6。14考试)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动北京公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写（迷你猫）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很奇怪的网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写（中华英才网）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sina.cn;897577hjy  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanjiangyu 897577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动、电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1969/3/29  1970-05-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发技能娴熟，分析判断能力和文笔能力较强，具有日语基本听说读写能力，擅长民谣吉他弹奏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京只有一个20人的。截止2016-10-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -237,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,18 +563,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.5" style="5"/>
-    <col min="4" max="4" width="64.125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="24.5" style="5"/>
+    <col min="1" max="3" width="24.44140625" style="5"/>
+    <col min="4" max="4" width="64.109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="24.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="121.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="121.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +592,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -562,7 +600,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -574,7 +612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -582,7 +620,7 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -591,10 +629,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -612,7 +650,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -620,47 +658,61 @@
         <v>10.9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18810322589</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="8" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -668,23 +720,28 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -692,7 +749,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -700,7 +757,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -708,7 +765,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -716,7 +773,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -724,61 +781,61 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -797,7 +854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -810,7 +867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.报名时间：9月28日-10月13日(其中软件开发中心，数据中心，长春、天津、武汉培训学院岗位报名时间为9月28日-10月17日)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国建设银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明早在单位完成最后提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线填写(入党时间--2013-12-16 ，获cet6证书日期--2014.6。14考试)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +143,10 @@
   </si>
   <si>
     <t>北京只有一个20人的。截止2016-10-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.报名时间：9月28日-10月13日(其中软件开发中心，数据中心，长春、天津、武汉培训学院岗位报名时间为9月28日-10月17日)。 好像只能报一个，报了北京的程序员岗位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +171,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,18 +210,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -275,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,18 +558,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="24.44140625" style="5"/>
-    <col min="4" max="4" width="64.109375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="24.44140625" style="5"/>
+    <col min="1" max="3" width="24.5" style="3"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="121.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="121.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -592,7 +587,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -600,7 +595,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -609,32 +604,30 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>9.2899999999999991</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>10.8</v>
@@ -643,68 +636,68 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>10.9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>18810322589</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -712,7 +705,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -720,28 +713,28 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -749,7 +742,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -757,7 +750,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -765,7 +758,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -773,7 +766,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -781,61 +774,61 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -854,7 +847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,7 +860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -98,18 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国移动北京公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线填写（迷你猫）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>很奇怪的网站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线填写（中华英才网）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,15 +130,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>北京只有一个20人的。截止2016-10-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.报名时间：9月28日-10月13日(其中软件开发中心，数据中心，长春、天津、武汉培训学院岗位报名时间为9月28日-10月17日)。 好像只能报一个，报了北京的程序员岗位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------北京公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写（智联）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18810322589 qwerty123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152104199403125518</t>
+  </si>
+  <si>
     <t>软件开发技能娴熟，分析判断能力和文笔能力较强，具有日语基本听说读写能力，擅长民谣吉他弹奏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京只有一个20人的。截止2016-10-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.报名时间：9月28日-10月13日(其中软件开发中心，数据中心，长春、天津、武汉培训学院岗位报名时间为9月28日-10月17日)。 好像只能报一个，报了北京的程序员岗位。</t>
+    <t>内蒙古牙克石市库都尔镇营林处森林防火办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古牙克石市暖泉办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------天津公司，在线服务，系统集成，信息安全，铁通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区北京交通大学学苑学生公寓七号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15126145@bjtu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古牙克石市林业一中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500388762 18810294894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很奇怪的网站，后来又在另一个网站上填写了一次，累得要死还失败了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球，乒乓球，读书，桌游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------设计院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15126145@ 897577hjy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +226,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,10 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,9 +294,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -270,7 +347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,20 +633,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.5" style="3"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="24.5" style="3"/>
+    <col min="1" max="3" width="24.44140625" style="3"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="121.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="121.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -587,7 +664,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -595,7 +672,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -607,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -618,14 +695,14 @@
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -643,7 +720,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -651,193 +728,221 @@
         <v>10.9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
         <v>18810322589</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10.11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+    <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10.11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>18810322589</v>
+      </c>
+      <c r="B16" s="2">
+        <v>18810350165</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -847,7 +952,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -860,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -150,58 +150,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>软件开发技能娴熟，分析判断能力和文笔能力较强，具有日语基本听说读写能力，擅长民谣吉他弹奏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古牙克石市库都尔镇营林处森林防火办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古牙克石市暖泉办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------天津公司，在线服务，系统集成，信息安全，铁通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区北京交通大学学苑学生公寓七号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古牙克石市林业一中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很奇怪的网站，后来又在另一个网站上填写了一次，累得要死还失败了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球，乒乓球，读书，桌游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------设计院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15126145@ 897577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------政企</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只让申请两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15126145@bjtu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">18500388762 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>18810294894</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>152104199403125518</t>
-  </si>
-  <si>
-    <t>软件开发技能娴熟，分析判断能力和文笔能力较强，具有日语基本听说读写能力，擅长民谣吉他弹奏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古牙克石市库都尔镇营林处森林防火办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古牙克石市暖泉办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国移动------天津公司，在线服务，系统集成，信息安全，铁通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区北京交通大学学苑学生公寓七号楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15126145@bjtu.edu.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古牙克石市林业一中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18500388762 18810294894</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很奇怪的网站，后来又在另一个网站上填写了一次，累得要死还失败了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>足球，乒乓球，读书，桌游。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国移动------设计院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15126145@ 897577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据研发，一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写（51job）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务开发岗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只让申请一个；还要答题，答了好久</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程专业导论：90；软件工程概论：81；离散结构：86；数据库系统：74；软件工程管理：85；计算机系统基础：81；C++面向对象程序设计：86；操作系统与实践：80；软件系统分析与设计技术：86；软件测试技术及实践：79。</t>
+  </si>
+  <si>
+    <t>软件质量保证：94；高级软件体系结构：85；Web服务开发技术与平台：85；嵌入式操作系统：85；软件需求工程：90；嵌入式系统应用开发：90；移动平台的应用开发：88；软件项目实训I：84；软件项目实训II：96。</t>
+  </si>
+  <si>
+    <t>中国移动------研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanjiangyu 897577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------卓望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +357,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +454,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -767,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>18810322589</v>
@@ -776,7 +934,7 @@
     </row>
     <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>10.11</v>
@@ -792,153 +950,228 @@
     </row>
     <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>10.11</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>18810322589</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18810350165</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15947766662</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18810322589</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18810350165</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3">
+        <v>13847031206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
+    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId1"/>
     <hyperlink ref="E9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.9 已不能修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,153 @@
   </si>
   <si>
     <t>15126145@bjtu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152104199403125518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据研发，一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线填写（51job）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务开发岗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只让申请一个；还要答题，答了好久</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程专业导论：90；软件工程概论：81；离散结构：86；数据库系统：74；软件工程管理：85；计算机系统基础：81；C++面向对象程序设计：86；操作系统与实践：80；软件系统分析与设计技术：86；软件测试技术及实践：79。</t>
+  </si>
+  <si>
+    <t>软件质量保证：94；高级软件体系结构：85；Web服务开发技术与平台：85；嵌入式操作系统：85；软件需求工程：90；嵌入式系统应用开发：90；移动平台的应用开发：88；软件项目实训I：84；软件项目实训II：96。</t>
+  </si>
+  <si>
+    <t>中国移动------研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanjiangyu 897577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------卓望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通支付有限公司10.18笔试面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移铁通北京分公司十月底笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动设计院10.16上午10:30面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移在线10.30笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/10/26 前在线笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动政企2016年10月16日前在线笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通北京分公司 18号北航通知参加宣讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动研究院 20号晚在线笔试，之前要进去检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动天津分公司 21-25等短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动政企21号上午面试，带一堆东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行软件开发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,83 +389,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>152104199403125518</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国移动------财务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据研发，一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线填写（51job）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务开发岗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只让申请一个；还要答题，答了好久</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程专业导论：90；软件工程概论：81；离散结构：86；数据库系统：74；软件工程管理：85；计算机系统基础：81；C++面向对象程序设计：86；操作系统与实践：80；软件系统分析与设计技术：86；软件测试技术及实践：79。</t>
-  </si>
-  <si>
-    <t>软件质量保证：94；高级软件体系结构：85；Web服务开发技术与平台：85；嵌入式操作系统：85；软件需求工程：90；嵌入式系统应用开发：90；移动平台的应用开发：88；软件项目实训I：84；软件项目实训II：96。</t>
-  </si>
-  <si>
-    <t>中国移动------研究院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hanjiangyu 897577hjy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国移动------卓望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +470,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,8 +492,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,43 +513,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -791,388 +913,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="24.44140625" style="3"/>
+    <col min="5" max="5" width="14.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="121.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="1">
         <v>9.2799999999999994</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18810322589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10.18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10.18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2">
+    </row>
+    <row r="26" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15947766662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>18810322589</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10.11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10.11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B28" s="1">
+        <v>18810350165</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3">
+        <v>13847031206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="2">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2">
-        <v>15947766662</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18810322589</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18810350165</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="3">
-        <v>13847031206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>报名截止到2016年10月21日24时（北京时间）。考试预计于2016年11月中下旬进行。只报了一个信息技术，可报的特别少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,6 +383,14 @@
       </rPr>
       <t>18810294894</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月20日24：00前报名打印；2016年10月23日9：00 － 12：00笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -669,7 +673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,7 +708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,44 +919,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -969,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -977,7 +981,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -986,39 +990,41 @@
         <v>5</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5">
         <v>9.2899999999999991</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1043,113 +1049,113 @@
         <v>10.9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>10.11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1">
         <v>10.11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B14" s="1">
         <v>10.119999999999999</v>
@@ -1158,36 +1164,36 @@
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>10.119999999999999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>10.119999999999999</v>
@@ -1196,18 +1202,18 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B17" s="1">
         <v>10.119999999999999</v>
@@ -1216,114 +1222,114 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1">
         <v>10.18</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1">
         <v>10.18</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
         <v>15947766662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>18810322589</v>
       </c>
@@ -1331,68 +1337,68 @@
         <v>18810350165</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3">
         <v>13847031206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1415,7 +1421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1428,7 +1434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -386,11 +386,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10月20日24：00前报名打印；2016年10月23日9：00 － 12：00笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月20日24：00前报名打印；2016年10月23日9：00 － 12：00笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
         <v>9.2899999999999991</v>
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5"/>
     </row>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国移动------政企</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只让申请两个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,39 +207,6 @@
   </si>
   <si>
     <t>在线填写（51job）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务开发岗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只让申请一个；还要答题，答了好久</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,6 +354,43 @@
   </si>
   <si>
     <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务开发岗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只让申请一个；还要答题，答了好久</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动------政企(放弃参加面试)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -557,9 +563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +587,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -919,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -937,22 +947,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -989,8 +999,8 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>60</v>
+      <c r="F3" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -999,13 +1009,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="17" t="s">
-        <v>66</v>
+      <c r="F4" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
         <v>9.2899999999999991</v>
@@ -1019,8 +1029,8 @@
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>74</v>
+      <c r="F5" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -1107,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1117,7 +1127,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1127,7 +1137,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,59 +1151,59 @@
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1">
+    </row>
+    <row r="14" spans="1:7" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="17">
         <v>10.119999999999999</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>69</v>
+      <c r="F14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1">
         <v>10.119999999999999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>10.119999999999999</v>
@@ -1202,18 +1212,18 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>10.119999999999999</v>
@@ -1222,12 +1232,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1">
         <v>10.18</v>
@@ -1236,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
@@ -1244,7 +1254,7 @@
     </row>
     <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1">
         <v>10.18</v>
@@ -1295,7 +1305,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1308,7 +1318,7 @@
     <row r="26" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1318,7 +1328,7 @@
     </row>
     <row r="27" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1336,8 +1346,8 @@
       <c r="B28" s="1">
         <v>18810350165</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>73</v>
+      <c r="C28" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
@@ -1353,16 +1363,16 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>48</v>
+      <c r="A30" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>49</v>
+      <c r="A31" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中移铁通北京分公司十月底笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移动设计院10.16上午10:30面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +281,6 @@
   </si>
   <si>
     <t>移动研究院 20号晚在线笔试，之前要进去检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动天津分公司 21-25等短信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,6 +383,18 @@
   </si>
   <si>
     <t>中国移动------政企(放弃参加面试)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.6下午笔试，10.23前确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移铁通北京分公司十月底笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动天津分公司 21-25等短信，30日考试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -683,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,7 +722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,22 +934,22 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1"/>
-    <col min="8" max="16384" width="24.5" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -966,7 +970,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -982,8 +986,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1003,19 +1010,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5">
         <v>9.2899999999999991</v>
@@ -1030,11 +1037,11 @@
         <v>9</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1117,30 +1124,30 @@
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1157,15 +1164,15 @@
         <v>39</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="17">
         <v>10.119999999999999</v>
@@ -1174,19 +1181,19 @@
         <v>7</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1201,7 +1208,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1218,10 +1225,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1235,9 +1242,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1">
         <v>10.18</v>
@@ -1246,15 +1253,15 @@
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>10.18</v>
@@ -1266,32 +1273,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -1300,7 +1307,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>42</v>
@@ -1326,7 +1333,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>18810322589</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>18810350165</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
@@ -1356,13 +1363,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -1370,7 +1377,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
@@ -1378,37 +1385,37 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1431,7 +1438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,7 +1451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -386,15 +386,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.6下午笔试，10.23前确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中移铁通北京分公司十月底笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移动天津分公司 21-25等短信，30日考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中移设计院10.30笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.6下午笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27上午9:00复试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -576,28 +584,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,7 +698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,7 +733,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,25 +942,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -970,7 +981,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -987,10 +998,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1006,21 +1017,24 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -1041,7 +1055,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1109,7 +1123,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1123,31 +1137,31 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1163,37 +1177,40 @@
       <c r="E13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="H13" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>10.119999999999999</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1208,7 +1225,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1228,7 +1245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1242,7 +1259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1259,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -1273,32 +1290,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -1307,7 +1324,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>42</v>
@@ -1333,7 +1350,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
@@ -1346,7 +1363,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>18810322589</v>
       </c>
@@ -1363,13 +1380,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1394,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
@@ -1385,37 +1402,37 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1438,7 +1455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,7 +1468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -402,7 +402,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.27上午9:00复试</t>
+    <r>
+      <t>笔试时间是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11月13日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 下午</t>
+    </r>
+  </si>
+  <si>
+    <t>10.27上午9:00二面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +518,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -555,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -600,13 +637,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -944,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1021,7 +1059,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1089,7 +1127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1104,6 +1142,9 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1137,7 +1178,7 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1147,7 +1188,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1157,7 +1198,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1180,10 +1221,10 @@
       <c r="F13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>76</v>
       </c>
     </row>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -427,6 +423,15 @@
   </si>
   <si>
     <t>10.27上午9:00二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11月4日（周五）下午3:00面试；丰台区丽泽路18号院1号楼金唐国际金融大厦，408培训教室
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1036,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1059,7 +1064,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1074,7 +1079,7 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5">
         <v>9.2899999999999991</v>
@@ -1091,7 +1096,9 @@
       <c r="F5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1144,7 +1151,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1179,7 +1186,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1189,7 +1196,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1225,12 +1232,12 @@
         <v>61</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="15">
         <v>10.119999999999999</v>
@@ -1239,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>18</v>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -741,7 +741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,7 +776,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -987,23 +987,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1"/>
-    <col min="8" max="16384" width="24.5" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1077,7 +1077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1096,11 +1096,11 @@
       <c r="F5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1185,31 +1185,31 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1231,11 +1231,11 @@
       <c r="G13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -1338,32 +1338,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -1372,7 +1372,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>42</v>
@@ -1398,7 +1398,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>18810322589</v>
       </c>
@@ -1428,13 +1428,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
@@ -1450,37 +1450,37 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1503,7 +1503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1516,7 +1516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -432,6 +432,10 @@
   <si>
     <t xml:space="preserve">11月4日（周五）下午3:00面试；丰台区丽泽路18号院1号楼金唐国际金融大厦，408培训教室
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5下午笔试 193556</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -741,7 +745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,7 +780,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -987,23 +991,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1024,7 +1028,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1040,11 +1044,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1077,7 +1081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1133,8 +1137,11 @@
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1199,7 +1206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1209,7 +1216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1273,7 +1280,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1293,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1307,7 +1314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -1338,32 +1345,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -1372,7 +1379,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>42</v>
@@ -1398,7 +1405,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +1418,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>18810322589</v>
       </c>
@@ -1428,13 +1435,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -1442,7 +1449,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
@@ -1450,37 +1457,37 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1503,7 +1510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1516,7 +1523,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -438,12 +438,16 @@
     <t>11.5下午笔试 193556</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2016年11月6日9:00至12:00在线测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +544,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -601,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -656,6 +669,7 @@
     <xf numFmtId="31" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -703,7 +717,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,7 +759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,7 +794,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -991,23 +1005,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1"/>
-    <col min="8" max="16384" width="24.5" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1028,7 +1042,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1062,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1081,7 +1095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1178,7 +1192,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1196,7 +1210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1206,7 +1220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1216,7 +1230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
@@ -1265,7 +1279,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1294,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1300,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1330,8 +1344,11 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -1345,32 +1362,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -1379,7 +1396,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1394,7 +1411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>42</v>
@@ -1405,7 +1422,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
@@ -1418,7 +1435,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>18810322589</v>
       </c>
@@ -1435,13 +1452,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -1449,7 +1466,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
@@ -1457,37 +1474,37 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1510,7 +1527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,7 +1540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -440,6 +440,14 @@
   </si>
   <si>
     <t>2016年11月6日9:00至12:00在线测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月9号 周三  下午两点到四点冠华大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信集团系统集成有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,6 +678,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -717,7 +726,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,7 +803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,25 +1012,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1042,7 +1051,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1095,7 +1104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1220,7 +1229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1230,7 +1239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1294,7 +1303,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1344,176 +1353,188 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>10.18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>15947766662</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>18810322589</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>18810350165</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>13847031206</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
+    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId1"/>
     <hyperlink ref="E13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1527,7 +1548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,7 +1561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -448,6 +448,19 @@
   </si>
   <si>
     <t>中国电信集团系统集成有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中国人寿财产保险股份有限公司总部
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152104--;897577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chinalife.com.cn/jobs/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,6 +692,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1014,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1384,10 +1398,21 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1536,9 +1561,10 @@
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
     <hyperlink ref="E13" r:id="rId2"/>
+    <hyperlink ref="D21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -443,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十一月9号 周三  下午两点到四点冠华大厦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国电信集团系统集成有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +457,13 @@
   </si>
   <si>
     <t>http://www.chinalife.com.cn/jobs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月5日 10:00-22:00（答题时间2个小时）</t>
+  </si>
+  <si>
+    <t>十一月9号 周三  下午两点到四点冠华大厦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -690,7 +693,6 @@
     <xf numFmtId="31" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -740,7 +742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,7 +784,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +819,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,23 +1030,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1"/>
-    <col min="8" max="16384" width="24.5" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1065,7 +1067,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1118,7 +1120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1243,7 +1245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1252,8 +1254,11 @@
       <c r="F12" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1317,7 +1322,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1367,23 +1372,23 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -1397,9 +1402,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1">
         <v>11.3</v>
@@ -1407,33 +1412,33 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>87</v>
+      <c r="D21" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -1442,7 +1447,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>42</v>
@@ -1468,7 +1473,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -1481,7 +1486,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>18810322589</v>
       </c>
@@ -1498,13 +1503,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>46</v>
       </c>
@@ -1512,7 +1517,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>47</v>
       </c>
@@ -1520,37 +1525,37 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1574,7 +1579,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,7 +1592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
       <c r="F5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="F12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="12" t="s">
         <v>87</v>
       </c>
     </row>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -464,6 +464,14 @@
   </si>
   <si>
     <t>十一月9号 周三  下午两点到四点冠华大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试已报名2016年11月20日（星期日）下午14:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等面试通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,9 +691,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,6 +700,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -742,7 +748,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -784,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,23 +1036,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1067,7 +1073,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1083,11 +1089,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,11 +1112,11 @@
       <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1120,7 +1126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,8 +1165,11 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,11 +1205,11 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1244,8 +1253,11 @@
       <c r="F11" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1258,7 +1270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1277,14 +1289,14 @@
       <c r="F13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1322,7 +1334,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1372,11 +1384,11 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1384,11 +1396,11 @@
         <v>83</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -1412,33 +1424,33 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -1447,7 +1459,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>42</v>
@@ -1473,7 +1485,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>18810322589</v>
       </c>
@@ -1503,13 +1515,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>46</v>
       </c>
@@ -1517,7 +1529,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>47</v>
       </c>
@@ -1525,37 +1537,37 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1579,7 +1591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1592,7 +1604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -471,7 +471,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等面试通知</t>
+    <t>等面试通知2016年11月18日天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年11月11日（本周五）14：00至中国移动通信集团公司B座612会议室参加面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动中移全通系统集成有限公司面试11月14日（周一）13:30；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月13日上午考试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,16 +703,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -748,7 +762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -790,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,7 +839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,25 +1048,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1"/>
-    <col min="8" max="16384" width="24.5" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1073,7 +1087,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1112,11 +1126,11 @@
       <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1125,8 +1139,11 @@
       <c r="F4" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1149,7 +1166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1206,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1205,11 +1222,11 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1243,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1240,11 +1257,11 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1253,11 +1270,11 @@
       <c r="F11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1269,94 +1286,89 @@
       <c r="G12" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>10.11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B15" s="15">
         <v>10.119999999999999</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>10.119999999999999</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>10.119999999999999</v>
@@ -1364,221 +1376,241 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>10.18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="21" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>10.18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>11.3</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D22" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="9" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="7" t="s">
+    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>15947766662</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>18810322589</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>18810350165</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="3">
         <v>13847031206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>46</v>
-      </c>
+    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
+    <row r="39" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1"/>
-    <hyperlink ref="E13" r:id="rId2"/>
-    <hyperlink ref="D21" r:id="rId3"/>
+    <hyperlink ref="A29" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="D22" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1591,7 +1623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,7 +1636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -479,11 +479,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>11月13日上午考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中国移动中移全通系统集成有限公司面试11月14日（周一）13:30；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11月13日上午考试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +766,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -804,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,7 +843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,23 +1054,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1140,10 +1144,10 @@
         <v>63</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>18810322589</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1261,20 +1265,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="12" t="s">
+    <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1290,19 +1297,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>72</v>
       </c>
@@ -1351,7 +1358,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1366,7 +1373,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1386,7 +1393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1400,7 +1407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1420,7 +1427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1432,7 +1439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1463,26 +1470,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -1491,7 +1498,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>42</v>
@@ -1517,7 +1524,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1537,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>18810322589</v>
       </c>
@@ -1547,13 +1554,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
@@ -1561,7 +1568,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>47</v>
       </c>
@@ -1569,37 +1576,37 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1623,7 +1630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,7 +1643,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,12 +612,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,34 +685,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -766,7 +757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -808,7 +799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,7 +834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,23 +1045,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1"/>
-    <col min="8" max="16384" width="24.5" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1091,7 +1082,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1143,11 +1134,11 @@
       <c r="F4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1170,7 +1161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1246,8 +1237,9 @@
       <c r="E9" s="1">
         <v>18810322589</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1265,7 +1257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1281,7 +1273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1293,23 +1285,23 @@
       <c r="G12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1335,7 +1327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>72</v>
       </c>
@@ -1358,7 +1350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1373,7 +1365,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1393,7 +1385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1407,7 +1399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1427,7 +1419,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1439,7 +1431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1453,7 +1445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1470,26 +1462,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -1498,7 +1490,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1513,7 +1505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>42</v>
@@ -1524,7 +1516,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>41</v>
       </c>
@@ -1537,7 +1529,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>18810322589</v>
       </c>
@@ -1554,13 +1546,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
@@ -1568,7 +1560,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>47</v>
       </c>
@@ -1576,37 +1568,37 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1630,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1643,7 +1635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -490,12 +490,16 @@
     <t>中国移动中移全通系统集成有限公司面试11月14日（周一）13:30；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2016/11/19  9:30:00笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,8 +605,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,6 +727,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -757,7 +778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -799,7 +820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,7 +855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,22 +1067,22 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1082,7 +1103,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1138,7 +1159,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -1161,7 +1182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,11 +1198,11 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +1222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1221,7 +1242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1260,7 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1257,7 +1278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1273,7 +1294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1289,7 +1310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1301,7 +1322,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>72</v>
       </c>
@@ -1350,7 +1371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1365,7 +1386,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1385,7 +1406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1399,7 +1420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1431,7 +1452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1445,7 +1466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1461,27 +1482,30 @@
       <c r="E22" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -1490,7 +1514,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>42</v>
@@ -1516,7 +1540,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1553,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>18810322589</v>
       </c>
@@ -1546,13 +1570,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
@@ -1560,7 +1584,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>47</v>
       </c>
@@ -1568,37 +1592,37 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1622,7 +1646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1635,7 +1659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>中国建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hanjiangyu24，,87577hjy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,6 +488,10 @@
   </si>
   <si>
     <t>2016/11/19  9:30:00笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanjiangyu24，,897577hjy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1084,22 +1084,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1131,7 +1131,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -1140,10 +1140,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1153,33 +1153,33 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5">
         <v>9.2899999999999991</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,67 +1193,67 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>10.9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>18810322589</v>
@@ -1262,20 +1262,20 @@
     </row>
     <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
         <v>10.11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1285,13 +1285,13 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1301,13 +1301,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1317,40 +1317,40 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>10.11</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="15">
         <v>10.119999999999999</v>
@@ -1359,36 +1359,36 @@
         <v>7</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
         <v>10.119999999999999</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1">
         <v>10.119999999999999</v>
@@ -1397,18 +1397,18 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>10.119999999999999</v>
@@ -1417,27 +1417,27 @@
         <v>7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1">
         <v>10.18</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F19" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1445,30 +1445,30 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1">
         <v>10.18</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1">
         <v>11.3</v>
@@ -1477,13 +1477,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1508,7 +1508,7 @@
     <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1516,38 +1516,38 @@
     </row>
     <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1">
         <v>15947766662</v>
@@ -1561,10 +1561,10 @@
         <v>18810350165</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3">
         <v>13847031206</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -729,6 +729,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1222,61 +1228,64 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="15">
         <v>18810322589</v>
       </c>
       <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="15">
         <v>10.11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>72</v>
       </c>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
@@ -1294,33 +1303,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="12" t="s">
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1371,56 +1380,61 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="15">
         <v>10.119999999999999</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="15">
         <v>10.119999999999999</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="15">
         <v>10.119999999999999</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1440,7 +1454,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1452,7 +1466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1466,7 +1480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -1486,26 +1500,26 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -1514,7 +1528,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1529,7 +1543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>41</v>
@@ -1540,7 +1554,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
@@ -1553,7 +1567,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>18810322589</v>
       </c>
@@ -1570,13 +1584,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>45</v>
       </c>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -492,6 +492,22 @@
   </si>
   <si>
     <t>hanjiangyu24，,897577hjy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-20日参加在线测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21号面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22号面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21号面试软件中心；中国银行数据中心11月25日，上午9:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,12 +638,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -641,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,13 +698,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,41 +711,50 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -784,7 +802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -826,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,7 +879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,25 +1088,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1"/>
-    <col min="8" max="16384" width="24.5" style="3"/>
+    <col min="1" max="1" width="24.44140625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1"/>
+    <col min="8" max="16384" width="24.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -1109,7 +1127,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1125,70 +1143,73 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="25" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="24">
         <v>9.2799999999999994</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" s="25" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="24">
         <v>9.2899999999999991</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1204,11 +1225,11 @@
       <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,114 +1245,120 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>18810322589</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>10.11</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1344,97 +1371,100 @@
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="I14" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>10.119999999999999</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>10.119999999999999</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>10.119999999999999</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" s="17" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>10.119999999999999</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1450,23 +1480,24 @@
       <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3" t="s">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1480,7 +1511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -1490,36 +1521,36 @@
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -1528,12 +1559,12 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1543,9 +1574,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1554,8 +1585,8 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="1"/>
@@ -1567,14 +1598,14 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>18810322589</v>
       </c>
       <c r="B30" s="1">
         <v>18810350165</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1584,59 +1615,59 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1660,7 +1691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,7 +1704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -754,7 +754,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -802,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -844,7 +847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,7 +882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,22 +1094,22 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1"/>
-    <col min="8" max="16384" width="24.44140625" style="3"/>
+    <col min="1" max="1" width="24.5" style="3"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="64.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1"/>
+    <col min="8" max="16384" width="24.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -1127,30 +1130,30 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="25" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="25" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1186,7 +1189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="25" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="25" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>78</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1225,11 +1228,11 @@
       <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1279,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1295,7 +1298,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1330,7 +1333,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1346,7 +1349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1358,7 +1361,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1383,11 +1386,11 @@
       <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>71</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -1427,7 +1430,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
@@ -1448,7 +1451,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>50</v>
       </c>
@@ -1464,7 +1467,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1497,7 +1500,7 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -1531,26 +1534,26 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -1559,7 +1562,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>41</v>
@@ -1585,7 +1588,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>15947766662</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>18810322589</v>
       </c>
@@ -1615,13 +1618,13 @@
         <v>13847031206</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
@@ -1629,7 +1632,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>46</v>
       </c>
@@ -1637,37 +1640,37 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1691,7 +1694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1704,7 +1707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">11月4日（周五）下午3:00面试；丰台区丽泽路18号院1号楼金唐国际金融大厦，408培训教室
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,11 +499,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22号面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21号面试软件中心；中国银行数据中心11月25日，上午9:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22号面试软开，放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26号面试数据中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +633,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +661,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -712,9 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,10 +761,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1094,7 +1108,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1130,86 +1144,89 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" s="30" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="25" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="H2" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="24" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>9.2799999999999994</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="10" t="s">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="25" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="G4" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="24" customFormat="1" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="23">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="24">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1226,10 +1243,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -1249,117 +1266,117 @@
         <v>17</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>18810322589</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>10.11</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="11" t="s">
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1380,92 +1397,92 @@
       <c r="F14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="I14" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>10.119999999999999</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:9" s="12" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>10.119999999999999</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>10.119999999999999</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>10.119999999999999</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1483,22 +1500,22 @@
       <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1516,7 +1533,7 @@
     </row>
     <row r="22" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1">
         <v>11.3</v>
@@ -1524,14 +1541,14 @@
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>85</v>
+      <c r="D22" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">

--- a/job/简历投递记录.xlsx
+++ b/job/简历投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t xml:space="preserve">银行：（一）网上报名。具体报名时间为2016年9月14日－10月13日。
 　　（二）笔试。2016年11月上旬在全国38个城市组织统一笔试。
@@ -512,6 +512,14 @@
   </si>
   <si>
     <t>中国农业银行http://job.abchina.com/rms/resume.do?action=check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心复试，12.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.13面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1166,8 +1174,11 @@
       <c r="G2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="9" t="s">
         <v>99</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="24" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1248,30 +1259,33 @@
       <c r="F6" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="24" customFormat="1" ht="165.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="23">
         <v>10.9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="23" t="s">
         <v>97</v>
       </c>
     </row>
